--- a/Projects/DIAGEOMX_SAND/Data/TOUCH POINT.xlsx
+++ b/Projects/DIAGEOMX_SAND/Data/TOUCH POINT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Segment" sheetId="1" state="visible" r:id="rId2"/>
@@ -441,18 +441,18 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -777,13 +777,14 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/DIAGEOMX_SAND/Data/TOUCH POINT.xlsx
+++ b/Projects/DIAGEOMX_SAND/Data/TOUCH POINT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Segment" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>CASH &amp; CARRY CITY</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Johnnie Walker Red</t>
   </si>
   <si>
-    <t>Johnnie Walker Green</t>
+    <t>Johnnie Walker Green </t>
   </si>
   <si>
     <t>Johnnie Walker Double Black</t>
@@ -77,16 +77,10 @@
     <t>Bells</t>
   </si>
   <si>
-    <t>Johnnie Walker Red Rye</t>
-  </si>
-  <si>
     <t>Johnnie Walker Platinum</t>
   </si>
   <si>
     <t>Buchanans Master</t>
-  </si>
-  <si>
-    <t>Johnnie Walker Wine Cask</t>
   </si>
   <si>
     <t>Johnnie Walker 18 </t>
@@ -258,15 +252,15 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -310,24 +304,24 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
+      <left/>
+      <right style="medium"/>
       <top/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -355,71 +349,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -429,7 +411,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -441,18 +423,18 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -482,281 +464,290 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="7" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="7" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="7" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="7" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="7" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="7" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="9" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="7" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="7" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="7" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="9" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="7" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="7" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="14" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="9" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="9" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="9" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="7" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="7" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="7" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="7" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="7" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="7" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="7" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="7" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="7" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="7" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="7" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="11" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -777,74 +768,74 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/DIAGEOMX_SAND/Data/TOUCH POINT.xlsx
+++ b/Projects/DIAGEOMX_SAND/Data/TOUCH POINT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Segment" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,204 +21,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
-  <si>
-    <t>CASH &amp; CARRY CITY</t>
-  </si>
-  <si>
-    <t>CASH &amp; CARRY SAMS</t>
-  </si>
-  <si>
-    <t>SSS EMC</t>
-  </si>
-  <si>
-    <t>SSS MAINSTREAM</t>
-  </si>
-  <si>
-    <t>SSS PREMIUM</t>
-  </si>
-  <si>
-    <t>WHS POS &amp; ON TRADE</t>
-  </si>
-  <si>
-    <t>WHS WEMC</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTALES</t>
-  </si>
-  <si>
-    <t>Johnnie Walker Black</t>
-  </si>
-  <si>
-    <t>Black &amp; White</t>
-  </si>
-  <si>
-    <t>Johnnie Walker Red</t>
-  </si>
-  <si>
-    <t>Johnnie Walker Green </t>
-  </si>
-  <si>
-    <t>Johnnie Walker Double Black</t>
-  </si>
-  <si>
-    <t>Vat 69</t>
-  </si>
-  <si>
-    <t>J&amp;B Rare</t>
-  </si>
-  <si>
-    <t>Johnnie Walker Gold</t>
-  </si>
-  <si>
-    <t>Buchanans Deluxe</t>
-  </si>
-  <si>
-    <t>Bells</t>
-  </si>
-  <si>
-    <t>Johnnie Walker Platinum</t>
-  </si>
-  <si>
-    <t>Buchanans Master</t>
-  </si>
-  <si>
-    <t>Johnnie Walker 18 </t>
-  </si>
-  <si>
-    <t>Old Parr 12</t>
-  </si>
-  <si>
-    <t>Johnnie Walker King George</t>
-  </si>
-  <si>
-    <t>Old Parr Silver</t>
-  </si>
-  <si>
-    <t>Johnnie Walker Blue</t>
-  </si>
-  <si>
-    <t>Buchanans 18 Yrs</t>
-  </si>
-  <si>
-    <t>Buchanans Red Seal</t>
-  </si>
-  <si>
-    <t>Cardhu 12 Yrs</t>
-  </si>
-  <si>
-    <t>Cardhu 15 Yrs</t>
-  </si>
-  <si>
-    <t>Caol Ila</t>
-  </si>
-  <si>
-    <t>Clynelish</t>
-  </si>
-  <si>
-    <t>Singleton 12</t>
-  </si>
-  <si>
-    <t>Singleton 15</t>
-  </si>
-  <si>
-    <t>Singleton 18</t>
-  </si>
-  <si>
-    <t>Dalwhinnie</t>
-  </si>
-  <si>
-    <t>Glenkinchie</t>
-  </si>
-  <si>
-    <t>Lagavulin</t>
-  </si>
-  <si>
-    <t>Cragganmore</t>
-  </si>
-  <si>
-    <t>Oban 14 Yrs</t>
-  </si>
-  <si>
-    <t>Talisker Storm</t>
-  </si>
-  <si>
-    <t>Talisker 10 Yrs</t>
-  </si>
-  <si>
-    <t>Bulleit</t>
-  </si>
-  <si>
-    <t>Zacapa 23 Yrs</t>
-  </si>
-  <si>
-    <t>Zacapa Ambar</t>
-  </si>
-  <si>
-    <t>Zacapa XO</t>
-  </si>
-  <si>
-    <t>Ketel One</t>
-  </si>
-  <si>
-    <t>Don Julio 70</t>
-  </si>
-  <si>
-    <t>Don Julio 1942</t>
-  </si>
-  <si>
-    <t>Don Julio Real</t>
-  </si>
-  <si>
-    <t>Tanqueray Ten</t>
-  </si>
-  <si>
-    <t>Tanqueray London</t>
-  </si>
-  <si>
-    <t>Tanqueray Rangpur</t>
-  </si>
-  <si>
-    <t>Mezcal Union El Joven</t>
-  </si>
-  <si>
-    <t>Mezcal Union El Viejo</t>
-  </si>
-  <si>
-    <t>Scene Types</t>
-  </si>
-  <si>
-    <t>ARETE</t>
-  </si>
-  <si>
-    <t>CABECERA</t>
-  </si>
-  <si>
-    <t>CABECERA RESERVE SAM´S</t>
-  </si>
-  <si>
-    <t>COMPETENCIA</t>
-  </si>
-  <si>
-    <t>ISLA</t>
-  </si>
-  <si>
-    <t>MAMUT</t>
-  </si>
-  <si>
-    <t>PALLET</t>
-  </si>
-  <si>
-    <t>PASTELERO</t>
-  </si>
-  <si>
-    <t>PDQ</t>
-  </si>
-  <si>
-    <t>REJILLA</t>
-  </si>
-  <si>
-    <t>TRANSFORMER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">CASH &amp; CARRY CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH &amp; CARRY SAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS EMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS MAINSTREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHS POS &amp; ON TRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHS WEMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTAMENTALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black &amp; White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Green </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Double Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J&amp;B Rare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanans Deluxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanans Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Parr 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker King George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Parr Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnnie Walker Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanans 18 Yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanans Red Seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardhu 12 Yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardhu 15 Yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caol Ila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clynelish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singleton 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singleton 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singleton 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalwhinnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenkinchie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagavulin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cragganmore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oban 14 Yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisker Storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisker 10 Yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulleit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacapa 23 Yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacapa Ambar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacapa XO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketel One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don Julio 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don Julio 1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don Julio Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanqueray Ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanqueray London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanqueray Rangpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mezcal Union El Joven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mezcal Union El Viejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABECERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABECERA RESERVE SAM´S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPETENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTELERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REJILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFORMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch Point</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -252,15 +255,15 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,7 +352,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,11 +362,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,7 +398,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,7 +414,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -423,18 +426,18 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -766,15 +769,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -836,6 +839,11 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
